--- a/output/prelim_results_4_plated_10x.xlsx
+++ b/output/prelim_results_4_plated_10x.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="614">
   <si>
     <t xml:space="preserve">locus_tag</t>
   </si>
@@ -100,12 +100,24 @@
     <t xml:space="preserve">fabF</t>
   </si>
   <si>
+    <t xml:space="preserve">RS24690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpmA</t>
+  </si>
+  <si>
     <t xml:space="preserve">RS03475</t>
   </si>
   <si>
     <t xml:space="preserve">birA</t>
   </si>
   <si>
+    <t xml:space="preserve">RS06935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tilS</t>
+  </si>
+  <si>
     <t xml:space="preserve">RS25195</t>
   </si>
   <si>
@@ -130,12 +142,6 @@
     <t xml:space="preserve">gapA</t>
   </si>
   <si>
-    <t xml:space="preserve">RS24690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rpmA</t>
-  </si>
-  <si>
     <t xml:space="preserve">RS04945</t>
   </si>
   <si>
@@ -148,12 +154,6 @@
     <t xml:space="preserve">ispG</t>
   </si>
   <si>
-    <t xml:space="preserve">RS06935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tilS</t>
-  </si>
-  <si>
     <t xml:space="preserve">RS29790</t>
   </si>
   <si>
@@ -214,6 +214,12 @@
     <t xml:space="preserve">ispH</t>
   </si>
   <si>
+    <t xml:space="preserve">RS06855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyrH</t>
+  </si>
+  <si>
     <t xml:space="preserve">RS25765</t>
   </si>
   <si>
@@ -280,64 +286,418 @@
     <t xml:space="preserve">folB</t>
   </si>
   <si>
+    <t xml:space="preserve">RS25210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prfA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS23730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gatA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS25575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">panB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS27030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rfaP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS03410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hemJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS13725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvdE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS04795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubiX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS25590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pgi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS18160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ligA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS26570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS22120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS26640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpsR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS07640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apbC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS21175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS10405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fabD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS26815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS26645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpsF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS22170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ygfZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS28455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glnK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS26675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hisX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS13560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvdG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS03690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpsM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS07495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS25085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mqo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS20840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dapA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS22760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pitA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS16815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acnB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS04610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ribD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS21415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lysC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS25215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hemA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS09805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ppnK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS25660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rimP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS02875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS09400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubiG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS16200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qscR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS25685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glmM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS02880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pgk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS23715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mreC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS10410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fabG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS02850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS25630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pnp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS05855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suhB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS07645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS10440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">holB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS17860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lpdA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS12390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tusC</t>
+  </si>
+  <si>
     <t xml:space="preserve">RS12385</t>
   </si>
   <si>
     <t xml:space="preserve">tusB</t>
   </si>
   <si>
-    <t xml:space="preserve">RS25210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prfA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS23730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gatA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS25575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">panB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS27030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rfaP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS03410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hemJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS13725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvdE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS04795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ubiX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS25590</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pgi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS18160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ligA</t>
+    <t xml:space="preserve">RS25650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS23240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">groL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS26720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tsaE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS29880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mnmE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS12505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pgsA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS09640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leuB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS12380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tusE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS27335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tatC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS25635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpsO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS02130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyrC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS25760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS28200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS23510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trpS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS11010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS20630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pdxH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS25690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">folP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS13930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS05805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lptG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS23625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpoN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS23550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hisC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS02135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyrB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS29210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oadA</t>
   </si>
   <si>
     <t xml:space="preserve">RS03050</t>
@@ -346,70 +706,58 @@
     <t xml:space="preserve">cca</t>
   </si>
   <si>
-    <t xml:space="preserve">RS22120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lepB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS26640</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rpsR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS26570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nadE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS07640</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apbC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS21175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS10405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fabD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS26815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS26645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rpsF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS22170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ygfZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS28455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glnK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS26675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hisX</t>
+    <t xml:space="preserve">RS23935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS24680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS26800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS18425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ccmC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS26735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS09340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zwf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS25700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rlmE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS02630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bioC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS25720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carB</t>
   </si>
   <si>
     <t xml:space="preserve">RS16790</t>
@@ -418,274 +766,214 @@
     <t xml:space="preserve">lpxH</t>
   </si>
   <si>
-    <t xml:space="preserve">RS13560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvdG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS03690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rpsM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS07495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS25085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mqo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS20840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dapA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS22760</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pitA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS16815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acnB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS04610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ribD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS21415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lysC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS25215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hemA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS09805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ppnK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS25660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rimP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS02875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS09400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ubiG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS16200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qscR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS25685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glmM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS02880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pgk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS23715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mreC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS10410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fabG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS02850</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS25630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pnp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS05855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suhB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS07645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS10440</t>
-  </si>
-  <si>
-    <t xml:space="preserve">holB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS17860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lpdA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS12390</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tusC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS25650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS23240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">groL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS26720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tsaE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS29880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mnmE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS12505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pgsA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS09640</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leuB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS12380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tusE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS27335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tatC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS25635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rpsO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS02130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pyrC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS06855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pyrH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS25760</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS28200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS23510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trpS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS11010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS20630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pdxH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS25690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">folP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS13930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS05805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lptG</t>
+    <t xml:space="preserve">RS22570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS28800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubiA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS04910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lipA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS03530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rplA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS04675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ispA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS05010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thiE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS26670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS22095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pdxJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS05985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leuA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS27635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpmI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS00095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS04950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lptE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS07510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">argG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS29160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS02285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ahcY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS27010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS27260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS28190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubiD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS04905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lipB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS25290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS27060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aceE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS27320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hisE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS27040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waaC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS28400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lysA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS12365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cysG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS28625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">argB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS12925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACADM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS25405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ilvI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS14085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gapB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS25745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dnaK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS22105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">era</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS14970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mgtC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS06445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thrC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS28220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hemB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS21190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS20060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dapE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS25400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ilvN</t>
   </si>
   <si>
     <t xml:space="preserve">RS25735</t>
@@ -694,91 +982,412 @@
     <t xml:space="preserve">dapB</t>
   </si>
   <si>
-    <t xml:space="preserve">RS23625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rpoN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS23550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hisC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS02135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pyrB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS29210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oadA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS24680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS26800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS18425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ccmC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS26735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS09340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zwf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS25700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rlmE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS02630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bioC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS27040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waaC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS22570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS28800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ubiA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS04910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lipA</t>
+    <t xml:space="preserve">RS22720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS23615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lptA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS00020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gyrB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS01815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lgt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS01860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">folA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS01875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ilvD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS01930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coaD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS02000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpoH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS02025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thiG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS02090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS02275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS03100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS03355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trpD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS03360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trpC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS03430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erpA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS04630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nusB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS04635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thiL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS04735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ppa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS04855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS04970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS04980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ybeY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS05005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hemL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS05015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thiD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS06100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guaB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS06930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS08905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS09345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pgl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS09515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tyrB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS09625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leuC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS09695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS10335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exbD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS10365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS10480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETFDH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS10485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etfB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS13665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS16770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">folD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS16775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cysS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS17345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mtnC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS17875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdhB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS17880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdhA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS20045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pcpS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS21045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tolB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS22110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS22150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpoE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS22775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fppA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS22970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fumA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS23635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ptsN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS24665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">murJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS24700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ispB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS26200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS26235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS26785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS26970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msbA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS27025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waaX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS27175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aroB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS27180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aroK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS27235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS27680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hisF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS27685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hisA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS27870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fabY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS28120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubiH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS28610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coaBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS28840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pstB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS29220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pycR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS09415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gyrA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS23345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lpxC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS02260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oprM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS21050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tolA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS09985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyrD</t>
   </si>
   <si>
     <t xml:space="preserve">RS02615</t>
@@ -787,991 +1396,397 @@
     <t xml:space="preserve">bioB</t>
   </si>
   <si>
-    <t xml:space="preserve">RS03530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rplA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS04675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ispA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS05010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thiE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS26670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS22095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pdxJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS05985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leuA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS00095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS04950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lptE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS29160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS02285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ahcY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS27010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS27260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS28190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ubiD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS04905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lipB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS25290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS27060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aceE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS27320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hisE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS28400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lysA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS12365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cysG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS28625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">argB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS12925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACADM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS25405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ilvI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS14085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gapB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS25745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dnaK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS22105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">era</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS14970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mgtC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS06445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thrC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS28220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hemB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS21190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS20060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dapE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS25400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ilvN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS22720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS23615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lptA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS00020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gyrB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS01815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lgt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS01860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">folA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS01875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ilvD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS01930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coaD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS02000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rpoH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS02025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thiG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS02090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS02275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS03100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS03355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trpD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS03360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trpC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS03430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">erpA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS04630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nusB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS04635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thiL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS04735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ppa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS04855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS04970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS04980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ybeY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS05005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hemL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS05015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thiD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS06100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guaB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS06930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS08905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS09345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pgl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS09415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gyrA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS09515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tyrB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS09625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leuC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS09695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS10335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exbD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS10365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS10480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETFDH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS10485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">etfB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS16770</t>
-  </si>
-  <si>
-    <t xml:space="preserve">folD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS16775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cysS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS17345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mtnC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS17875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdhB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS17880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdhA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS20045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pcpS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS21045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tolB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS22110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rnc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS22150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rpoE</t>
+    <t xml:space="preserve">RS28615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS00185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trpB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS25250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS16975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cysH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS03175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trpE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS23970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coaE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS18865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pdxB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS25230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ispE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS09350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS23315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mutT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS23340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS09645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS09675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">folC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS03095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pdxA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS28025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">argA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS18400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ccmH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS28405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dapF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS00110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tsaC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS00125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aroE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS02070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS02225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bioA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS04475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cupB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS05845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS06990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ispF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS07450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">argF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS09665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trpF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS11665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thrS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS12815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lecA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS13230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mexS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS17850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sucD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS17855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sucC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS17885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdhD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS18260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS18685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yfiP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS21040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS21520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS23140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sodB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS23460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS25395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ilvC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS26195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aroQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS26240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS27035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waaG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS27995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ldcA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS28325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">argH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS28665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyrE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS28835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phoU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS29165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS29215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS29700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tonB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS23710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mreD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS02635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bioD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS26845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thiC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS03520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nusG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS00180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trpA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS01785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS02065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS02620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bioF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS04615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ribC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS06285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tadA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS06440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS06610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wspF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS07205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glpD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS09630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leuD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS10010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evgA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS13110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xylL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS16985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cysB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS18255</t>
   </si>
   <si>
     <t xml:space="preserve">RS22715</t>
   </si>
   <si>
     <t xml:space="preserve">recD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS22775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fppA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS22970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fumA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS23635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ptsN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS24665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">murJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS24700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ispB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS26200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS26235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS26785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS26970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">msbA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS27025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waaX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS27180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aroK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS27235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS27635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gpmI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS27680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hisF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS27685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hisA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS28120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ubiH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS28610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coaBC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS28840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pstB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS29220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pycR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS23345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lpxC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS02260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oprM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS21050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tolA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS09985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pyrD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS28615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS00185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trpB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS25250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS16975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cysH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS03175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trpE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS23970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coaE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS18865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pdxB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS25230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ispE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS09350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS23315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS23340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS09645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS09675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">folC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS23935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nadC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS03095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pdxA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS28025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">argA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS18400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ccmH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS28405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dapF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS00110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tsaC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS00125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aroE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS02070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS02225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bioA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS04475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cupB4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS05845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS06990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ispF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS07450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">argF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS07510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">argG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS09665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trpF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS10010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evgA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS11665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thrS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS12815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lecA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS13230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mexS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS17850</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sucD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS17855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sucC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS17885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdhD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS18260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS18685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yfiP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS21040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS21520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS23140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sodB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS23460</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CYC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS25395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ilvC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS25720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS26195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aroQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS26240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS27035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waaG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS27995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ldcA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS28325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">argH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS28665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pyrE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS28835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phoU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS29165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS29215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS29700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tonB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS23710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mreD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS02635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bioD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS26845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thiC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS03520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nusG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS00180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trpA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS01785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS02065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS02620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bioF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS04615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ribC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS06285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tadA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS06440</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS06610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wspF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS07205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glpD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS09630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leuD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS13110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xylL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS16985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cysB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS18255</t>
   </si>
   <si>
     <t xml:space="preserve">RS23465</t>
@@ -1947,16 +1962,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E308"/>
+  <dimension ref="A1:E311"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="20.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2157,10 +2172,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>-4.16238906189211</v>
+        <v>-8.3556047069515</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>0.00291642334759093</v>
+        <v>0.0028863077865088</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2174,10 +2189,10 @@
         <v>7</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-4.22791599823868</v>
+        <v>-4.16238906189211</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0.00419121184084272</v>
+        <v>0.00291642334759093</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2191,10 +2206,10 @@
         <v>7</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-2.84726187969351</v>
+        <v>-5.47740827416767</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.00560668107438095</v>
+        <v>0.00396364138339977</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2208,10 +2223,10 @@
         <v>7</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>-5.67930972041053</v>
+        <v>-4.22791599823868</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.00750390155778745</v>
+        <v>0.00419121184084272</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2225,10 +2240,10 @@
         <v>7</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>-3.23860294860653</v>
+        <v>-2.84726187969351</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.00837363614024908</v>
+        <v>0.00560668107438095</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2242,10 +2257,10 @@
         <v>7</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>-5.89829394012698</v>
+        <v>-5.67930972041053</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.00871683392836507</v>
+        <v>0.00750390155778745</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2259,10 +2274,10 @@
         <v>7</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>-8.22194049582716</v>
+        <v>-3.23860294860653</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.00915614586792086</v>
+        <v>0.00837363614024908</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2276,10 +2291,10 @@
         <v>7</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>-7.12585784488855</v>
+        <v>-8.22194049582716</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.0117507540485951</v>
+        <v>0.00915614586792086</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2293,10 +2308,10 @@
         <v>7</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>-4.78846644985115</v>
+        <v>-7.12585784488855</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0.0139194240464327</v>
+        <v>0.0117507540485951</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2480,10 +2495,10 @@
         <v>7</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>-5.85059771945535</v>
+        <v>-3.71794644770422</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.0310319185644258</v>
+        <v>0.0300068756900153</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2497,10 +2512,10 @@
         <v>7</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>-3.52977763916393</v>
+        <v>-5.85059771945535</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>0.0322073659467857</v>
+        <v>0.0310319185644258</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2514,10 +2529,10 @@
         <v>7</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>-7.36057464308761</v>
+        <v>-3.52977763916393</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>0.0361190145398847</v>
+        <v>0.0322073659467857</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2531,10 +2546,10 @@
         <v>7</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>3.00927662297956</v>
+        <v>-7.36057464308761</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>0.0389190852917169</v>
+        <v>0.0361190145398847</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2548,10 +2563,10 @@
         <v>7</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>-10.1226829039801</v>
+        <v>3.00927662297956</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>0.0426770964512871</v>
+        <v>0.0389190852917169</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2565,10 +2580,10 @@
         <v>7</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>-2.95022188879543</v>
+        <v>-10.1226829039801</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>0.0443854967505908</v>
+        <v>0.0426770964512871</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2582,10 +2597,10 @@
         <v>7</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>-2.29037801552632</v>
+        <v>-2.95022188879543</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>0.0471681732751976</v>
+        <v>0.0443854967505908</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2599,10 +2614,10 @@
         <v>7</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>-10.6246718027614</v>
+        <v>-2.29037801552632</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>0.0518961753681527</v>
+        <v>0.0471681732751976</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2616,10 +2631,10 @@
         <v>7</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>-3.87835463391183</v>
+        <v>-10.6246718027614</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>0.0622896227461932</v>
+        <v>0.0518961753681527</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2633,10 +2648,10 @@
         <v>7</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>-4.6704145059456</v>
+        <v>-3.87835463391183</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>0.0653897949785182</v>
+        <v>0.0622896227461932</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2650,10 +2665,10 @@
         <v>7</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>-3.45320844672137</v>
+        <v>-4.6704145059456</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>0.0664039728404502</v>
+        <v>0.0653897949785182</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2667,10 +2682,10 @@
         <v>7</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>-3.26597990897005</v>
+        <v>-3.45320844672137</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>0.0689841976750634</v>
+        <v>0.0664039728404502</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2837,10 +2852,10 @@
         <v>7</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>-8.99791470803134</v>
+        <v>-4.77272480891069</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>0.123884650943593</v>
+        <v>0.118374805057656</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2888,10 +2903,10 @@
         <v>7</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>-5.83745340730763</v>
+        <v>-8.84139832637979</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>0.127303072148578</v>
+        <v>0.132779739759277</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2905,10 +2920,10 @@
         <v>7</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>-8.84139832637979</v>
+        <v>-9.08354259825955</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>0.132779739759277</v>
+        <v>0.137544850583303</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2922,10 +2937,10 @@
         <v>7</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>-9.08354259825955</v>
+        <v>-6.03075289834414</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>0.137544850583303</v>
+        <v>0.153213001857446</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2939,10 +2954,10 @@
         <v>7</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>-6.03075289834414</v>
+        <v>-8.71346626261828</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>0.153213001857446</v>
+        <v>0.154195119298336</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2956,10 +2971,10 @@
         <v>7</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>-8.71346626261828</v>
+        <v>-6.82767306174686</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>0.154195119298336</v>
+        <v>0.183010723824007</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2973,10 +2988,10 @@
         <v>7</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>-6.82767306174686</v>
+        <v>-3.44506900338568</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>0.183010723824007</v>
+        <v>0.186415356238972</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2990,10 +3005,10 @@
         <v>7</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>-3.44506900338568</v>
+        <v>-6.18740226062603</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>0.186415356238972</v>
+        <v>0.189373995003282</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3007,10 +3022,10 @@
         <v>7</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>-6.18740226062603</v>
+        <v>-9.39323904427472</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>0.189373995003282</v>
+        <v>0.191810380136294</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3024,10 +3039,10 @@
         <v>7</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>-9.39323904427472</v>
+        <v>-1.41712348009357</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>0.191810380136294</v>
+        <v>0.218490110229364</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3041,10 +3056,10 @@
         <v>7</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>-2.26769678762363</v>
+        <v>-6.55995266494433</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>0.216161203715922</v>
+        <v>0.219972863990246</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3058,10 +3073,10 @@
         <v>7</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>-1.41712348009357</v>
+        <v>-1.69244944026487</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>0.218490110229364</v>
+        <v>0.221019872987486</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3075,10 +3090,10 @@
         <v>7</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>-6.55995266494433</v>
+        <v>-3.43100958091303</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>0.219972863990246</v>
+        <v>0.226341361977406</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3092,10 +3107,10 @@
         <v>7</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>-1.69244944026487</v>
+        <v>-3.98008217565326</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>0.221019872987486</v>
+        <v>0.234462958839433</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3109,10 +3124,10 @@
         <v>7</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>-3.43100958091303</v>
+        <v>-2.72877399250875</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>0.226341361977406</v>
+        <v>0.249937101130196</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3126,10 +3141,10 @@
         <v>7</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>-3.98008217565326</v>
+        <v>-4.05384842374949</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>0.234462958839433</v>
+        <v>0.25619024841443</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3143,10 +3158,10 @@
         <v>7</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>-2.72877399250875</v>
+        <v>-2.42157487891414</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>0.249937101130196</v>
+        <v>0.264261784995673</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3160,10 +3175,10 @@
         <v>7</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>-4.05384842374949</v>
+        <v>-4.38183454937507</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>0.25619024841443</v>
+        <v>0.282013954428768</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3177,10 +3192,10 @@
         <v>7</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>-2.42157487891414</v>
+        <v>-2.09648411315398</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>0.264261784995673</v>
+        <v>0.288646847698331</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3194,10 +3209,10 @@
         <v>7</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>-4.38183454937507</v>
+        <v>-7.26186720647996</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>0.282013954428768</v>
+        <v>0.31948576007054</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3211,10 +3226,10 @@
         <v>7</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>-2.09648411315398</v>
+        <v>-7.93883114363256</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>0.288646847698331</v>
+        <v>0.323945412995548</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3228,10 +3243,10 @@
         <v>7</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>-7.26186720647996</v>
+        <v>-3.29670602718094</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>0.31948576007054</v>
+        <v>0.343959651580134</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3245,10 +3260,10 @@
         <v>7</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>-7.93883114363256</v>
+        <v>-1.69010398702926</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>0.323945412995548</v>
+        <v>0.343959651580134</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3262,10 +3277,10 @@
         <v>7</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>-3.29670602718094</v>
+        <v>-2.34629515091269</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>0.343959651580134</v>
+        <v>0.358384118415559</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3279,10 +3294,10 @@
         <v>7</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>-1.69010398702926</v>
+        <v>-1.27031480781085</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>0.343959651580134</v>
+        <v>0.358541321513937</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3296,10 +3311,10 @@
         <v>7</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>-2.34629515091269</v>
+        <v>-4.51217202856525</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>0.358384118415559</v>
+        <v>0.39115433729813</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3313,10 +3328,10 @@
         <v>7</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>-1.27031480781085</v>
+        <v>-3.93183292743651</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>0.358541321513937</v>
+        <v>0.401181328940525</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3330,10 +3345,10 @@
         <v>7</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>-4.51217202856525</v>
+        <v>-0.794620929407823</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>0.39115433729813</v>
+        <v>0.407029027193299</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3347,10 +3362,10 @@
         <v>7</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>-3.93183292743651</v>
+        <v>-6.07530565837299</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>0.401181328940525</v>
+        <v>0.429884686549623</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3364,10 +3379,10 @@
         <v>7</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>-0.794620929407823</v>
+        <v>-4.20626147431518</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>0.407029027193299</v>
+        <v>0.435096298183654</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3381,10 +3396,10 @@
         <v>7</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>-6.07530565837299</v>
+        <v>-7.84797048835238</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>0.429884686549623</v>
+        <v>0.457294068630759</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3398,10 +3413,10 @@
         <v>7</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>-4.20626147431518</v>
+        <v>-3.26424875188284</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>0.435096298183654</v>
+        <v>0.47079299667701</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3415,10 +3430,10 @@
         <v>7</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>-7.84797048835238</v>
+        <v>-0.732510025867039</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>0.457294068630759</v>
+        <v>0.513587957812838</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3432,10 +3447,10 @@
         <v>7</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>-3.26424875188284</v>
+        <v>-3.47909954887334</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>0.47079299667701</v>
+        <v>0.51637438139519</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3449,10 +3464,10 @@
         <v>7</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>-0.732510025867039</v>
+        <v>-4.01230666708273</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>0.513587957812838</v>
+        <v>0.536575602612244</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3466,10 +3481,10 @@
         <v>7</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>-3.47909954887334</v>
+        <v>-3.12639480071964</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>0.51637438139519</v>
+        <v>0.57092675517382</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3483,10 +3498,10 @@
         <v>7</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>-4.01230666708273</v>
+        <v>-1.33803708884052</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>0.536575602612244</v>
+        <v>0.585277695971379</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3500,10 +3515,10 @@
         <v>7</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>-1.33803708884052</v>
+        <v>-4.65175890912224</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>0.585277695971379</v>
+        <v>0.61512243425752</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3517,10 +3532,10 @@
         <v>7</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>-4.65175890912224</v>
+        <v>-4.34696205347307</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>0.61512243425752</v>
+        <v>0.628717791720877</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3534,10 +3549,10 @@
         <v>7</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>-4.34696205347307</v>
+        <v>-2.26106790932224</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>0.628717791720877</v>
+        <v>0.639684488213148</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3551,10 +3566,10 @@
         <v>7</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>-2.26106790932224</v>
+        <v>-5.52756894907377</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>0.639684488213148</v>
+        <v>0.652671097597567</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3568,10 +3583,10 @@
         <v>7</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>-5.52756894907377</v>
+        <v>-1.61625921864489</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>0.652671097597567</v>
+        <v>0.654084336134463</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3585,10 +3600,10 @@
         <v>7</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>-1.61625921864489</v>
+        <v>-1.34970339290704</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>0.654084336134463</v>
+        <v>0.6654353669713</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3602,10 +3617,10 @@
         <v>7</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>-1.34970339290704</v>
+        <v>-3.72262403343076</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>0.6654353669713</v>
+        <v>0.688615672383154</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3619,10 +3634,10 @@
         <v>7</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>-3.72262403343076</v>
+        <v>-4.388492251308</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>0.688615672383154</v>
+        <v>0.696650170547414</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3636,10 +3651,10 @@
         <v>7</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>-4.388492251308</v>
+        <v>-3.42502439744485</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>0.696650170547414</v>
+        <v>0.699847953794601</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3653,10 +3668,10 @@
         <v>7</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>-3.42502439744485</v>
+        <v>-5.13936760808787</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>0.699847953794601</v>
+        <v>0.70406347761417</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3670,10 +3685,10 @@
         <v>7</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>-2.67124237288622</v>
+        <v>-1.91420156218384</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>0.70406347761417</v>
+        <v>0.726612326173059</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3687,10 +3702,10 @@
         <v>7</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>-5.13936760808787</v>
+        <v>-5.10394728493304</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>0.70406347761417</v>
+        <v>0.739392040577107</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3704,10 +3719,10 @@
         <v>7</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>-1.91420156218384</v>
+        <v>-3.70212488300736</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>0.726612326173059</v>
+        <v>0.753860710382071</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3721,10 +3736,10 @@
         <v>7</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>-5.10394728493304</v>
+        <v>-2.08322766526346</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>0.739392040577107</v>
+        <v>0.758792563694187</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3738,10 +3753,10 @@
         <v>7</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>-3.70212488300736</v>
+        <v>-4.18575923826028</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>0.753860710382071</v>
+        <v>0.758792563694187</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3755,10 +3770,10 @@
         <v>7</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>-2.08322766526346</v>
+        <v>8.46346542084861</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>0.758792563694187</v>
+        <v>0.767818637605193</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3772,10 +3787,10 @@
         <v>7</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>-4.18575923826028</v>
+        <v>-4.05144760811275</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>0.758792563694187</v>
+        <v>0.770239996185104</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3789,10 +3804,10 @@
         <v>7</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>8.46346542084861</v>
+        <v>4.50251281997905</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>0.767818637605193</v>
+        <v>0.793176529826348</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3806,10 +3821,10 @@
         <v>7</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>-4.05144760811275</v>
+        <v>-4.41934196711658</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>0.770239996185104</v>
+        <v>0.80037569479204</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3823,10 +3838,10 @@
         <v>7</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>3.92987087223814</v>
+        <v>-3.06001559497153</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>0.785093589790959</v>
+        <v>0.800742897226992</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3840,10 +3855,10 @@
         <v>7</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>4.50251281997905</v>
+        <v>0.670335818272386</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>0.793176529826348</v>
+        <v>0.807708916261798</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3857,10 +3872,10 @@
         <v>7</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>-4.41934196711658</v>
+        <v>-4.86945993310922</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>0.80037569479204</v>
+        <v>0.81193240053262</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3874,10 +3889,10 @@
         <v>7</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>-3.06001559497153</v>
+        <v>2.77014320008711</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>0.800742897226992</v>
+        <v>0.813374563290786</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3891,10 +3906,10 @@
         <v>7</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>0.670335818272386</v>
+        <v>-0.0639191827283475</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>0.807708916261798</v>
+        <v>0.818859039176953</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3908,10 +3923,10 @@
         <v>7</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>-0.0639191827283475</v>
+        <v>-2.0894762100383</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>0.818859039176953</v>
+        <v>0.822786198702484</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3925,10 +3940,10 @@
         <v>7</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>-2.0894762100383</v>
+        <v>-4.10993232346818</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>0.822786198702484</v>
+        <v>0.82381442042738</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3942,10 +3957,10 @@
         <v>7</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>-4.10993232346818</v>
+        <v>-3.39899700939234</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>0.82381442042738</v>
+        <v>0.831702254014823</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3959,10 +3974,10 @@
         <v>7</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>-3.39899700939234</v>
+        <v>-2.16358064310653</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>0.831702254014823</v>
+        <v>0.845822834277908</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3976,10 +3991,10 @@
         <v>7</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>-2.16358064310653</v>
+        <v>-2.96585208054097</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>0.845822834277908</v>
+        <v>0.859866002777064</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3993,10 +4008,10 @@
         <v>7</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>-2.96585208054097</v>
+        <v>-0.925224837623211</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>0.859866002777064</v>
+        <v>0.861969657287625</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4010,10 +4025,10 @@
         <v>7</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>-0.925224837623211</v>
+        <v>5.07981219412861</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>0.861969657287625</v>
+        <v>0.873669712478685</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4027,10 +4042,10 @@
         <v>7</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>-2.72233367894464</v>
+        <v>-1.66817463365892</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>0.871804646209115</v>
+        <v>0.874322785862222</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4092,10 +4107,10 @@
         <v>7</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>2.46611279172247</v>
+        <v>1.28718838614136</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>0.913342027158943</v>
+        <v>0.921554746682905</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4109,10 +4124,10 @@
         <v>7</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>1.28718838614136</v>
+        <v>-4.31775077796157</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>0.921554746682905</v>
+        <v>0.924014138976428</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4126,10 +4141,10 @@
         <v>7</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>-4.31775077796157</v>
+        <v>-2.47998950333824</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>0.924014138976428</v>
+        <v>0.929942076252265</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4143,10 +4158,10 @@
         <v>7</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>-2.47998950333824</v>
+        <v>-2.63452999717207</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>0.929942076252265</v>
+        <v>0.930526166381276</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4160,10 +4175,10 @@
         <v>7</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>-2.63452999717207</v>
+        <v>-1.79769140593501</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>0.930526166381276</v>
+        <v>0.932265691483948</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4177,10 +4192,10 @@
         <v>7</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>-1.79769140593501</v>
+        <v>-0.943413509214305</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>0.932265691483948</v>
+        <v>0.934088641970649</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4194,10 +4209,10 @@
         <v>7</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>-0.943413509214305</v>
+        <v>2.49557195701682</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>0.934088641970649</v>
+        <v>0.934771078443324</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4245,10 +4260,10 @@
         <v>7</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>3.06676003386974</v>
+        <v>1.46303451505724</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>0.950578460157561</v>
+        <v>0.947781436062578</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4262,10 +4277,10 @@
         <v>7</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>-2.37963193455957</v>
+        <v>3.06676003386974</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>0.956608031608844</v>
+        <v>0.950578460157561</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4273,13 +4288,13 @@
         <v>275</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>219</v>
+        <v>276</v>
       </c>
       <c r="C137" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>-2.00870806117978</v>
+        <v>-2.37963193455957</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>0.956608031608844</v>
@@ -4287,16 +4302,16 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C138" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>1.52886429946391</v>
+        <v>-2.00870806117978</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>0.956608031608844</v>
@@ -4304,16 +4319,16 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>278</v>
+        <v>215</v>
       </c>
       <c r="C139" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>-1.64701087205772</v>
+        <v>1.52886429946391</v>
       </c>
       <c r="E139" s="0" t="n">
         <v>0.956608031608844</v>
@@ -4330,10 +4345,10 @@
         <v>7</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>-3.63571713010348</v>
+        <v>-1.64701087205772</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>0.956842561580544</v>
+        <v>0.956608031608844</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4341,30 +4356,30 @@
         <v>281</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="C141" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>-4.28164160739003</v>
+        <v>-3.63571713010348</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>0.963303188106263</v>
+        <v>0.956842561580544</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>283</v>
+        <v>215</v>
       </c>
       <c r="C142" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>1.10459391338235</v>
+        <v>-4.28164160739003</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>0.963303188106263</v>
@@ -4381,10 +4396,10 @@
         <v>7</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>-1.54232029924043</v>
+        <v>1.10459391338235</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>0.966559590434711</v>
+        <v>0.963303188106263</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4398,10 +4413,10 @@
         <v>7</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>0.965545561631741</v>
+        <v>-1.54232029924043</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>0.972885348829815</v>
+        <v>0.966559590434711</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4415,10 +4430,10 @@
         <v>7</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>-0.0362274407229005</v>
+        <v>-2.07892096540968</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>0.974217578293476</v>
+        <v>0.968217169566763</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4432,10 +4447,10 @@
         <v>7</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>0.60345552824632</v>
+        <v>0.965545561631741</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>0.975103481618785</v>
+        <v>0.972885348829815</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4449,10 +4464,10 @@
         <v>7</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>0.73339469533718</v>
+        <v>-0.0362274407229005</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>0.977087336200197</v>
+        <v>0.974217578293476</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4466,10 +4481,10 @@
         <v>7</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>-0.762497550331137</v>
+        <v>0.60345552824632</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>0.977570324483437</v>
+        <v>0.975103481618785</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4483,10 +4498,10 @@
         <v>7</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>-0.946452373512178</v>
+        <v>0.73339469533718</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>0.979905002816418</v>
+        <v>0.977087336200197</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4500,10 +4515,10 @@
         <v>7</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>0.830624711755125</v>
+        <v>-0.762497550331137</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>0.980219838438597</v>
+        <v>0.977570324483437</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4517,10 +4532,10 @@
         <v>7</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>-3.10506316280983</v>
+        <v>-0.946452373512178</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>0.980368730745822</v>
+        <v>0.979905002816418</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4534,10 +4549,10 @@
         <v>7</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>-0.229337271136807</v>
+        <v>0.830624711755125</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>0.98232445379935</v>
+        <v>0.980219838438597</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4551,10 +4566,10 @@
         <v>7</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>2.96536291308568</v>
+        <v>-3.10506316280983</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>0.982953143098952</v>
+        <v>0.980368730745822</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4568,10 +4583,10 @@
         <v>7</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>-0.700321992585819</v>
+        <v>-0.229337271136807</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>0.984347996622984</v>
+        <v>0.98232445379935</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4585,10 +4600,10 @@
         <v>7</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>-2.59620135962323</v>
+        <v>2.96536291308568</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>0.984501518064103</v>
+        <v>0.982953143098952</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4602,10 +4617,10 @@
         <v>7</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>1.94603016530462</v>
+        <v>-0.700321992585819</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>0.988107116646394</v>
+        <v>0.984347996622984</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4619,10 +4634,10 @@
         <v>7</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>1.35355029118853</v>
+        <v>-2.59620135962323</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>0.988107116646394</v>
+        <v>0.984501518064103</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4636,10 +4651,10 @@
         <v>7</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>-1.3269336011006</v>
+        <v>1.94603016530462</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>0.989292527170738</v>
+        <v>0.988107116646394</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4653,10 +4668,10 @@
         <v>7</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>-3.16623257248333</v>
+        <v>1.35355029118853</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>0.991711485400059</v>
+        <v>0.988107116646394</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4670,10 +4685,10 @@
         <v>7</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>-0.651244245279796</v>
+        <v>1.71937898873922</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>0.991967153296613</v>
+        <v>0.988107116646394</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4687,10 +4702,10 @@
         <v>7</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>-0.542060320439774</v>
+        <v>-1.3269336011006</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>0.991967153296613</v>
+        <v>0.989292527170738</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4704,10 +4719,10 @@
         <v>7</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>2.77125706117652</v>
+        <v>-3.16623257248333</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>0.991967153296613</v>
+        <v>0.991711485400059</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4721,7 +4736,7 @@
         <v>7</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>-0.900037769203055</v>
+        <v>-0.651244245279796</v>
       </c>
       <c r="E163" s="0" t="n">
         <v>0.991967153296613</v>
@@ -4738,7 +4753,7 @@
         <v>7</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>0.135116130804641</v>
+        <v>-0.542060320439774</v>
       </c>
       <c r="E164" s="0" t="n">
         <v>0.991967153296613</v>
@@ -4755,7 +4770,7 @@
         <v>7</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>-0.778794368977893</v>
+        <v>2.77125706117652</v>
       </c>
       <c r="E165" s="0" t="n">
         <v>0.991967153296613</v>
@@ -4772,7 +4787,7 @@
         <v>7</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>-1.57530832108257</v>
+        <v>-0.900037769203055</v>
       </c>
       <c r="E166" s="0" t="n">
         <v>0.991967153296613</v>
@@ -4789,7 +4804,7 @@
         <v>7</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>-0.462753172438082</v>
+        <v>0.135116130804641</v>
       </c>
       <c r="E167" s="0" t="n">
         <v>0.991967153296613</v>
@@ -4806,7 +4821,7 @@
         <v>7</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>-0.67979120572159</v>
+        <v>-0.778794368977893</v>
       </c>
       <c r="E168" s="0" t="n">
         <v>0.991967153296613</v>
@@ -4823,7 +4838,7 @@
         <v>7</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>-3.8760655162621</v>
+        <v>-1.57530832108257</v>
       </c>
       <c r="E169" s="0" t="n">
         <v>0.991967153296613</v>
@@ -4840,7 +4855,7 @@
         <v>7</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>-0.438232126709612</v>
+        <v>-0.462753172438082</v>
       </c>
       <c r="E170" s="0" t="n">
         <v>0.991967153296613</v>
@@ -4857,7 +4872,7 @@
         <v>7</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>1.18173452009159</v>
+        <v>-0.67979120572159</v>
       </c>
       <c r="E171" s="0" t="n">
         <v>0.991967153296613</v>
@@ -4874,7 +4889,7 @@
         <v>7</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>-1.0518492418854</v>
+        <v>-3.8760655162621</v>
       </c>
       <c r="E172" s="0" t="n">
         <v>0.991967153296613</v>
@@ -4891,7 +4906,7 @@
         <v>7</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>-1.12940681577444</v>
+        <v>-0.438232126709612</v>
       </c>
       <c r="E173" s="0" t="n">
         <v>0.991967153296613</v>
@@ -4908,7 +4923,7 @@
         <v>7</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>0.239015538299631</v>
+        <v>1.18173452009159</v>
       </c>
       <c r="E174" s="0" t="n">
         <v>0.991967153296613</v>
@@ -4925,7 +4940,7 @@
         <v>7</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>-2.80434107508264</v>
+        <v>-1.0518492418854</v>
       </c>
       <c r="E175" s="0" t="n">
         <v>0.991967153296613</v>
@@ -4942,7 +4957,7 @@
         <v>7</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>-1.46610303717598</v>
+        <v>-1.12940681577444</v>
       </c>
       <c r="E176" s="0" t="n">
         <v>0.991967153296613</v>
@@ -4959,7 +4974,7 @@
         <v>7</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>0.451546926032561</v>
+        <v>0.239015538299631</v>
       </c>
       <c r="E177" s="0" t="n">
         <v>0.991967153296613</v>
@@ -4976,7 +4991,7 @@
         <v>7</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>-0.63710413215286</v>
+        <v>-2.80434107508264</v>
       </c>
       <c r="E178" s="0" t="n">
         <v>0.991967153296613</v>
@@ -4993,7 +5008,7 @@
         <v>7</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>0.294226902146405</v>
+        <v>-1.46610303717598</v>
       </c>
       <c r="E179" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5010,7 +5025,7 @@
         <v>7</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>2.06955119929236</v>
+        <v>0.451546926032561</v>
       </c>
       <c r="E180" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5027,7 +5042,7 @@
         <v>7</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>-2.50436481473764</v>
+        <v>-0.63710413215286</v>
       </c>
       <c r="E181" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5044,7 +5059,7 @@
         <v>7</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>-1.71529724206844</v>
+        <v>0.294226902146405</v>
       </c>
       <c r="E182" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5061,7 +5076,7 @@
         <v>7</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>0.882453755841538</v>
+        <v>2.06955119929236</v>
       </c>
       <c r="E183" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5078,7 +5093,7 @@
         <v>7</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>-2.63221968279398</v>
+        <v>-2.50436481473764</v>
       </c>
       <c r="E184" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5095,7 +5110,7 @@
         <v>7</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>0.180113674479842</v>
+        <v>-1.71529724206844</v>
       </c>
       <c r="E185" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5112,7 +5127,7 @@
         <v>7</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>-0.580196379244528</v>
+        <v>0.882453755841538</v>
       </c>
       <c r="E186" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5129,7 +5144,7 @@
         <v>7</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>-0.493347687945234</v>
+        <v>-2.63221968279398</v>
       </c>
       <c r="E187" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5146,7 +5161,7 @@
         <v>7</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>-1.12249867155128</v>
+        <v>-0.580196379244528</v>
       </c>
       <c r="E188" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5163,7 +5178,7 @@
         <v>7</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>-1.02831844639949</v>
+        <v>-0.493347687945234</v>
       </c>
       <c r="E189" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5180,7 +5195,7 @@
         <v>7</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>-1.71434616582204</v>
+        <v>-1.12249867155128</v>
       </c>
       <c r="E190" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5197,7 +5212,7 @@
         <v>7</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>0.781696569882542</v>
+        <v>-1.02831844639949</v>
       </c>
       <c r="E191" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5214,7 +5229,7 @@
         <v>7</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>-0.798679029970544</v>
+        <v>-1.71434616582204</v>
       </c>
       <c r="E192" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5231,7 +5246,7 @@
         <v>7</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>-1.89947666679755</v>
+        <v>0.781696569882542</v>
       </c>
       <c r="E193" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5248,7 +5263,7 @@
         <v>7</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>-2.80369541034629</v>
+        <v>-0.798679029970544</v>
       </c>
       <c r="E194" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5259,13 +5274,13 @@
         <v>388</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>389</v>
+        <v>215</v>
       </c>
       <c r="C195" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>-0.644855540702316</v>
+        <v>0.491356821518646</v>
       </c>
       <c r="E195" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5273,16 +5288,16 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B196" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="B196" s="0" t="s">
-        <v>391</v>
-      </c>
       <c r="C196" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>-1.25247375910092</v>
+        <v>-1.89947666679755</v>
       </c>
       <c r="E196" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5290,16 +5305,16 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B197" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="B197" s="0" t="s">
-        <v>393</v>
-      </c>
       <c r="C197" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>-1.61456219874728</v>
+        <v>-2.80369541034629</v>
       </c>
       <c r="E197" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5307,16 +5322,16 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B198" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="B198" s="0" t="s">
-        <v>395</v>
-      </c>
       <c r="C198" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>-0.937719203038175</v>
+        <v>-0.644855540702316</v>
       </c>
       <c r="E198" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5324,16 +5339,16 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B199" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="B199" s="0" t="s">
-        <v>397</v>
-      </c>
       <c r="C199" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>-0.517758125613912</v>
+        <v>-1.25247375910092</v>
       </c>
       <c r="E199" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5341,16 +5356,16 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B200" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="B200" s="0" t="s">
-        <v>399</v>
-      </c>
       <c r="C200" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>-0.0286798700215631</v>
+        <v>-1.61456219874728</v>
       </c>
       <c r="E200" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5358,16 +5373,16 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B201" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="B201" s="0" t="s">
-        <v>401</v>
-      </c>
       <c r="C201" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D201" s="0" t="n">
-        <v>-0.881874638377215</v>
+        <v>-0.937719203038175</v>
       </c>
       <c r="E201" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5375,16 +5390,16 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="B202" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="B202" s="0" t="s">
-        <v>403</v>
-      </c>
       <c r="C202" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D202" s="0" t="n">
-        <v>-3.49141029142063</v>
+        <v>-0.517758125613912</v>
       </c>
       <c r="E202" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5392,16 +5407,16 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B203" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="B203" s="0" t="s">
-        <v>405</v>
-      </c>
       <c r="C203" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D203" s="0" t="n">
-        <v>-0.105766298683239</v>
+        <v>-0.0286798700215631</v>
       </c>
       <c r="E203" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5409,16 +5424,16 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="B204" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="B204" s="0" t="s">
-        <v>407</v>
-      </c>
       <c r="C204" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D204" s="0" t="n">
-        <v>-1.15099098175662</v>
+        <v>-0.881874638377215</v>
       </c>
       <c r="E204" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5426,16 +5441,16 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B205" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="B205" s="0" t="s">
-        <v>409</v>
-      </c>
       <c r="C205" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D205" s="0" t="n">
-        <v>1.10010808499416</v>
+        <v>-0.105766298683239</v>
       </c>
       <c r="E205" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5443,16 +5458,16 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B206" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="B206" s="0" t="s">
-        <v>411</v>
-      </c>
       <c r="C206" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D206" s="0" t="n">
-        <v>-0.467830134005594</v>
+        <v>-1.15099098175662</v>
       </c>
       <c r="E206" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5460,16 +5475,16 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B207" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="B207" s="0" t="s">
-        <v>413</v>
-      </c>
       <c r="C207" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D207" s="0" t="n">
-        <v>-0.748031073065378</v>
+        <v>1.10010808499416</v>
       </c>
       <c r="E207" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5477,16 +5492,16 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B208" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="B208" s="0" t="s">
-        <v>415</v>
-      </c>
       <c r="C208" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D208" s="0" t="n">
-        <v>1.96410717691119</v>
+        <v>-0.467830134005594</v>
       </c>
       <c r="E208" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5494,16 +5509,16 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="B209" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="B209" s="0" t="s">
-        <v>417</v>
-      </c>
       <c r="C209" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D209" s="0" t="n">
-        <v>-0.446035704494422</v>
+        <v>-0.748031073065378</v>
       </c>
       <c r="E209" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5511,16 +5526,16 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B210" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="B210" s="0" t="s">
-        <v>219</v>
-      </c>
       <c r="C210" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D210" s="0" t="n">
-        <v>0.660585203616309</v>
+        <v>1.96410717691119</v>
       </c>
       <c r="E210" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5537,7 +5552,7 @@
         <v>7</v>
       </c>
       <c r="D211" s="0" t="n">
-        <v>-1.29558721319324</v>
+        <v>-0.446035704494422</v>
       </c>
       <c r="E211" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5548,13 +5563,13 @@
         <v>421</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>422</v>
+        <v>215</v>
       </c>
       <c r="C212" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D212" s="0" t="n">
-        <v>-0.863290706580577</v>
+        <v>0.660585203616309</v>
       </c>
       <c r="E212" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5562,16 +5577,16 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="B213" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="B213" s="0" t="s">
-        <v>424</v>
-      </c>
       <c r="C213" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D213" s="0" t="n">
-        <v>-2.65199495933991</v>
+        <v>-1.29558721319324</v>
       </c>
       <c r="E213" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5579,16 +5594,16 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="B214" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="B214" s="0" t="s">
-        <v>426</v>
-      </c>
       <c r="C214" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D214" s="0" t="n">
-        <v>-2.59214259649658</v>
+        <v>-0.863290706580577</v>
       </c>
       <c r="E214" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5596,16 +5611,16 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="B215" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="B215" s="0" t="s">
-        <v>428</v>
-      </c>
       <c r="C215" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D215" s="0" t="n">
-        <v>-0.690591068421803</v>
+        <v>-1.15987787010597</v>
       </c>
       <c r="E215" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5613,16 +5628,16 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="B216" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="B216" s="0" t="s">
-        <v>430</v>
-      </c>
       <c r="C216" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D216" s="0" t="n">
-        <v>-0.0860508006282464</v>
+        <v>-2.65199495933991</v>
       </c>
       <c r="E216" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5630,16 +5645,16 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B217" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="B217" s="0" t="s">
-        <v>432</v>
-      </c>
       <c r="C217" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D217" s="0" t="n">
-        <v>-0.865640129017661</v>
+        <v>-2.59214259649658</v>
       </c>
       <c r="E217" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5647,16 +5662,16 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B218" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="B218" s="0" t="s">
-        <v>434</v>
-      </c>
       <c r="C218" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D218" s="0" t="n">
-        <v>-1.68770387965408</v>
+        <v>-0.0860508006282464</v>
       </c>
       <c r="E218" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5664,16 +5679,16 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="B219" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="B219" s="0" t="s">
-        <v>436</v>
-      </c>
       <c r="C219" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D219" s="0" t="n">
-        <v>1.05630618339602</v>
+        <v>-0.865640129017661</v>
       </c>
       <c r="E219" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5681,16 +5696,16 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B220" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="B220" s="0" t="s">
-        <v>438</v>
-      </c>
       <c r="C220" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D220" s="0" t="n">
-        <v>0.606717673053271</v>
+        <v>-2.07438197315259</v>
       </c>
       <c r="E220" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5698,16 +5713,16 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="B221" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="B221" s="0" t="s">
-        <v>440</v>
-      </c>
       <c r="C221" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D221" s="0" t="n">
-        <v>0.340767243536444</v>
+        <v>-1.68770387965408</v>
       </c>
       <c r="E221" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5715,16 +5730,16 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="B222" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="B222" s="0" t="s">
-        <v>442</v>
-      </c>
       <c r="C222" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D222" s="0" t="n">
-        <v>-0.0662552115006578</v>
+        <v>1.05630618339602</v>
       </c>
       <c r="E222" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5732,16 +5747,16 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="B223" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="B223" s="0" t="s">
-        <v>444</v>
-      </c>
       <c r="C223" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D223" s="0" t="n">
-        <v>0.0671268044446963</v>
+        <v>0.606717673053271</v>
       </c>
       <c r="E223" s="0" t="n">
         <v>0.991967153296613</v>
@@ -5749,223 +5764,223 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="B224" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="B224" s="0" t="s">
-        <v>446</v>
-      </c>
       <c r="C224" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D224" s="0" t="n">
-        <v>-1.79615646851429</v>
+        <v>0.340767243536444</v>
       </c>
       <c r="E224" s="0" t="n">
-        <v>0.992951865678775</v>
+        <v>0.991967153296613</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="B225" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="B225" s="0" t="s">
-        <v>448</v>
-      </c>
       <c r="C225" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D225" s="0" t="n">
-        <v>-0.657368112277326</v>
+        <v>-2.48479937506746</v>
       </c>
       <c r="E225" s="0" t="n">
-        <v>0.993039950615004</v>
+        <v>0.991967153296613</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="B226" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="B226" s="0" t="s">
-        <v>450</v>
-      </c>
       <c r="C226" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D226" s="0" t="n">
-        <v>-1.44690468214167</v>
+        <v>-0.0662552115006578</v>
       </c>
       <c r="E226" s="0" t="n">
-        <v>0.993840049469218</v>
+        <v>0.991967153296613</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="B227" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="B227" s="0" t="s">
-        <v>452</v>
-      </c>
       <c r="C227" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D227" s="0" t="n">
-        <v>-0.185673460254224</v>
+        <v>0.0671268044446963</v>
       </c>
       <c r="E227" s="0" t="n">
-        <v>0.994363254390558</v>
+        <v>0.991967153296613</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B228" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="B228" s="0" t="s">
-        <v>454</v>
-      </c>
       <c r="C228" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D228" s="0" t="n">
-        <v>-0.606124493753169</v>
+        <v>-1.79615646851429</v>
       </c>
       <c r="E228" s="0" t="n">
-        <v>0.994502175135654</v>
+        <v>0.992951865678775</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="B229" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="B229" s="0" t="s">
-        <v>456</v>
-      </c>
       <c r="C229" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D229" s="0" t="n">
-        <v>1.00012408127246</v>
+        <v>-0.657368112277326</v>
       </c>
       <c r="E229" s="0" t="n">
-        <v>0.99477006402068</v>
+        <v>0.993039950615004</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="B230" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="B230" s="0" t="s">
-        <v>458</v>
-      </c>
       <c r="C230" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D230" s="0" t="n">
-        <v>-0.332394070895355</v>
+        <v>2.99171852741996</v>
       </c>
       <c r="E230" s="0" t="n">
-        <v>0.994826235208824</v>
+        <v>0.993819849687739</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="B231" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="B231" s="0" t="s">
-        <v>460</v>
-      </c>
       <c r="C231" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D231" s="0" t="n">
-        <v>-1.441402289186</v>
+        <v>-1.44690468214167</v>
       </c>
       <c r="E231" s="0" t="n">
-        <v>0.995234034915534</v>
+        <v>0.993840049469218</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="B232" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="B232" s="0" t="s">
-        <v>462</v>
-      </c>
       <c r="C232" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D232" s="0" t="n">
-        <v>-1.37285622580776</v>
+        <v>-0.185673460254224</v>
       </c>
       <c r="E232" s="0" t="n">
-        <v>0.995687469381374</v>
+        <v>0.994363254390558</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="B233" s="0" t="s">
         <v>463</v>
       </c>
-      <c r="B233" s="0" t="s">
-        <v>464</v>
-      </c>
       <c r="C233" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D233" s="0" t="n">
-        <v>-0.044548793799493</v>
+        <v>-0.606124493753169</v>
       </c>
       <c r="E233" s="0" t="n">
-        <v>0.996235121221312</v>
+        <v>0.994502175135654</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="B234" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="B234" s="0" t="s">
-        <v>466</v>
-      </c>
       <c r="C234" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D234" s="0" t="n">
-        <v>0.201812922719066</v>
+        <v>1.00012408127246</v>
       </c>
       <c r="E234" s="0" t="n">
-        <v>0.997191324500633</v>
+        <v>0.99477006402068</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="B235" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="B235" s="0" t="s">
-        <v>468</v>
-      </c>
       <c r="C235" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D235" s="0" t="n">
-        <v>0.367383814712584</v>
+        <v>-0.332394070895355</v>
       </c>
       <c r="E235" s="0" t="n">
-        <v>0.998308137845472</v>
+        <v>0.994826235208824</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="B236" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="B236" s="0" t="s">
-        <v>219</v>
-      </c>
       <c r="C236" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D236" s="0" t="n">
-        <v>-0.167969956593791</v>
+        <v>-1.441402289186</v>
       </c>
       <c r="E236" s="0" t="n">
-        <v>0.998386177853256</v>
+        <v>0.995234034915534</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5979,10 +5994,10 @@
         <v>7</v>
       </c>
       <c r="D237" s="0" t="n">
-        <v>-0.183875161990938</v>
+        <v>-1.37285622580776</v>
       </c>
       <c r="E237" s="0" t="n">
-        <v>0.998431864146859</v>
+        <v>0.995687469381374</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5996,10 +6011,10 @@
         <v>7</v>
       </c>
       <c r="D238" s="0" t="n">
-        <v>-3.08401856667498</v>
+        <v>-0.044548793799493</v>
       </c>
       <c r="E238" s="0" t="n">
-        <v>0.998586129041534</v>
+        <v>0.996235121221312</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6013,10 +6028,10 @@
         <v>7</v>
       </c>
       <c r="D239" s="0" t="n">
-        <v>2.06069060519742</v>
+        <v>0.201812922719066</v>
       </c>
       <c r="E239" s="0" t="n">
-        <v>0.998819194528603</v>
+        <v>0.997191324500633</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6030,10 +6045,10 @@
         <v>7</v>
       </c>
       <c r="D240" s="0" t="n">
-        <v>-1.72309165539203</v>
+        <v>0.367383814712584</v>
       </c>
       <c r="E240" s="0" t="n">
-        <v>0.998836344455009</v>
+        <v>0.998308137845472</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6041,132 +6056,132 @@
         <v>478</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>479</v>
+        <v>215</v>
       </c>
       <c r="C241" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D241" s="0" t="n">
-        <v>0.443463131773103</v>
+        <v>-0.167969956593791</v>
       </c>
       <c r="E241" s="0" t="n">
-        <v>0.998974456502684</v>
+        <v>0.998386177853256</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B242" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="B242" s="0" t="s">
-        <v>481</v>
-      </c>
       <c r="C242" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D242" s="0" t="n">
-        <v>0.415210862889813</v>
+        <v>-0.183875161990938</v>
       </c>
       <c r="E242" s="0" t="n">
-        <v>0.999205559465614</v>
+        <v>0.998431864146859</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="B243" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="B243" s="0" t="s">
-        <v>483</v>
-      </c>
       <c r="C243" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D243" s="0" t="n">
-        <v>0.69901790367464</v>
+        <v>-3.08401856667498</v>
       </c>
       <c r="E243" s="0" t="n">
-        <v>0.999617851005107</v>
+        <v>0.998586129041534</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B244" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="B244" s="0" t="s">
-        <v>485</v>
-      </c>
       <c r="C244" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D244" s="0" t="n">
-        <v>-0.3830080944081</v>
+        <v>-1.72309165539203</v>
       </c>
       <c r="E244" s="0" t="n">
-        <v>0.999668701664958</v>
+        <v>0.998836344455009</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="B245" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="B245" s="0" t="s">
-        <v>487</v>
-      </c>
       <c r="C245" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D245" s="0" t="n">
-        <v>-1.21011204238035</v>
+        <v>0.443463131773103</v>
       </c>
       <c r="E245" s="0" t="n">
-        <v>0.999668701664958</v>
+        <v>0.998974456502684</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B246" s="0" t="s">
         <v>488</v>
       </c>
-      <c r="B246" s="0" t="s">
-        <v>489</v>
-      </c>
       <c r="C246" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D246" s="0" t="n">
-        <v>-0.1028070843371</v>
+        <v>0.415210862889813</v>
       </c>
       <c r="E246" s="0" t="n">
-        <v>0.999668701664958</v>
+        <v>0.999205559465614</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="B247" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="B247" s="0" t="s">
-        <v>491</v>
-      </c>
       <c r="C247" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D247" s="0" t="n">
-        <v>-0.666904609594324</v>
+        <v>0.69901790367464</v>
       </c>
       <c r="E247" s="0" t="n">
-        <v>0.999668701664958</v>
+        <v>0.999617851005107</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="B248" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="B248" s="0" t="s">
-        <v>493</v>
-      </c>
       <c r="C248" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D248" s="0" t="n">
-        <v>-0.389242874055341</v>
+        <v>-0.3830080944081</v>
       </c>
       <c r="E248" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6174,16 +6189,16 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B249" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="B249" s="0" t="s">
-        <v>495</v>
-      </c>
       <c r="C249" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D249" s="0" t="n">
-        <v>0.0398591375562484</v>
+        <v>-1.21011204238035</v>
       </c>
       <c r="E249" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6191,16 +6206,16 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="B250" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="B250" s="0" t="s">
-        <v>497</v>
-      </c>
       <c r="C250" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D250" s="0" t="n">
-        <v>-0.473962012008602</v>
+        <v>-0.1028070843371</v>
       </c>
       <c r="E250" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6208,16 +6223,16 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="B251" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="B251" s="0" t="s">
-        <v>499</v>
-      </c>
       <c r="C251" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D251" s="0" t="n">
-        <v>-0.0160055748297554</v>
+        <v>-0.666904609594324</v>
       </c>
       <c r="E251" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6225,16 +6240,16 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="B252" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="B252" s="0" t="s">
-        <v>501</v>
-      </c>
       <c r="C252" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D252" s="0" t="n">
-        <v>-1.36471511560316</v>
+        <v>-0.389242874055341</v>
       </c>
       <c r="E252" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6242,16 +6257,16 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="B253" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="B253" s="0" t="s">
-        <v>503</v>
-      </c>
       <c r="C253" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D253" s="0" t="n">
-        <v>0.313387987005319</v>
+        <v>0.0398591375562484</v>
       </c>
       <c r="E253" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6259,16 +6274,16 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B254" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="B254" s="0" t="s">
-        <v>505</v>
-      </c>
       <c r="C254" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D254" s="0" t="n">
-        <v>0.926828923442921</v>
+        <v>-0.473962012008602</v>
       </c>
       <c r="E254" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6276,16 +6291,16 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="B255" s="0" t="s">
         <v>506</v>
       </c>
-      <c r="B255" s="0" t="s">
-        <v>507</v>
-      </c>
       <c r="C255" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D255" s="0" t="n">
-        <v>-1.20821359032928</v>
+        <v>-0.0160055748297554</v>
       </c>
       <c r="E255" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6293,16 +6308,16 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="B256" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="B256" s="0" t="s">
-        <v>509</v>
-      </c>
       <c r="C256" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D256" s="0" t="n">
-        <v>0.111819857763645</v>
+        <v>0.313387987005319</v>
       </c>
       <c r="E256" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6310,16 +6325,16 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="B257" s="0" t="s">
         <v>510</v>
       </c>
-      <c r="B257" s="0" t="s">
-        <v>511</v>
-      </c>
       <c r="C257" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D257" s="0" t="n">
-        <v>-2.56527834267818</v>
+        <v>-1.20821359032928</v>
       </c>
       <c r="E257" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6327,16 +6342,16 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="B258" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="B258" s="0" t="s">
-        <v>513</v>
-      </c>
       <c r="C258" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D258" s="0" t="n">
-        <v>0.581731444960326</v>
+        <v>0.111819857763645</v>
       </c>
       <c r="E258" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6344,16 +6359,16 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="B259" s="0" t="s">
         <v>514</v>
       </c>
-      <c r="B259" s="0" t="s">
-        <v>515</v>
-      </c>
       <c r="C259" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D259" s="0" t="n">
-        <v>0.829638197930509</v>
+        <v>-2.56527834267818</v>
       </c>
       <c r="E259" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6361,16 +6376,16 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="B260" s="0" t="s">
         <v>516</v>
       </c>
-      <c r="B260" s="0" t="s">
-        <v>517</v>
-      </c>
       <c r="C260" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D260" s="0" t="n">
-        <v>-1.71176783562097</v>
+        <v>0.581731444960326</v>
       </c>
       <c r="E260" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6378,16 +6393,16 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="B261" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="B261" s="0" t="s">
-        <v>219</v>
-      </c>
       <c r="C261" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D261" s="0" t="n">
-        <v>-0.0880296004701039</v>
+        <v>0.829638197930509</v>
       </c>
       <c r="E261" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6404,7 +6419,7 @@
         <v>7</v>
       </c>
       <c r="D262" s="0" t="n">
-        <v>0.0576922085070384</v>
+        <v>-1.71176783562097</v>
       </c>
       <c r="E262" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6415,13 +6430,13 @@
         <v>521</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>522</v>
+        <v>215</v>
       </c>
       <c r="C263" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D263" s="0" t="n">
-        <v>-2.47332564836276</v>
+        <v>-0.0880296004701039</v>
       </c>
       <c r="E263" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6429,16 +6444,16 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="B264" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="B264" s="0" t="s">
-        <v>219</v>
-      </c>
       <c r="C264" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D264" s="0" t="n">
-        <v>-0.0322718302513014</v>
+        <v>0.0576922085070384</v>
       </c>
       <c r="E264" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6455,7 +6470,7 @@
         <v>7</v>
       </c>
       <c r="D265" s="0" t="n">
-        <v>-2.07690559258903</v>
+        <v>-2.47332564836276</v>
       </c>
       <c r="E265" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6466,13 +6481,13 @@
         <v>526</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>527</v>
+        <v>215</v>
       </c>
       <c r="C266" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D266" s="0" t="n">
-        <v>0.895153489635357</v>
+        <v>-0.0322718302513014</v>
       </c>
       <c r="E266" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6480,16 +6495,16 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B267" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="B267" s="0" t="s">
-        <v>529</v>
-      </c>
       <c r="C267" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D267" s="0" t="n">
-        <v>0.331835770954002</v>
+        <v>-2.07690559258903</v>
       </c>
       <c r="E267" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6497,16 +6512,16 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="B268" s="0" t="s">
         <v>530</v>
       </c>
-      <c r="B268" s="0" t="s">
-        <v>531</v>
-      </c>
       <c r="C268" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D268" s="0" t="n">
-        <v>0.925425866663146</v>
+        <v>0.895153489635357</v>
       </c>
       <c r="E268" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6514,16 +6529,16 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="B269" s="0" t="s">
         <v>532</v>
       </c>
-      <c r="B269" s="0" t="s">
-        <v>533</v>
-      </c>
       <c r="C269" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D269" s="0" t="n">
-        <v>-0.191437717257753</v>
+        <v>0.331835770954002</v>
       </c>
       <c r="E269" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6531,16 +6546,16 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="B270" s="0" t="s">
         <v>534</v>
       </c>
-      <c r="B270" s="0" t="s">
-        <v>535</v>
-      </c>
       <c r="C270" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D270" s="0" t="n">
-        <v>0.624115259962388</v>
+        <v>-0.191437717257753</v>
       </c>
       <c r="E270" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6548,16 +6563,16 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="B271" s="0" t="s">
         <v>536</v>
       </c>
-      <c r="B271" s="0" t="s">
-        <v>537</v>
-      </c>
       <c r="C271" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D271" s="0" t="n">
-        <v>0.598313569348423</v>
+        <v>0.624115259962388</v>
       </c>
       <c r="E271" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6565,16 +6580,16 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="B272" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="B272" s="0" t="s">
-        <v>539</v>
-      </c>
       <c r="C272" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D272" s="0" t="n">
-        <v>-0.0493421530105523</v>
+        <v>0.598313569348423</v>
       </c>
       <c r="E272" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6582,16 +6597,16 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="B273" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="B273" s="0" t="s">
-        <v>541</v>
-      </c>
       <c r="C273" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D273" s="0" t="n">
-        <v>0.942351531695589</v>
+        <v>-0.0493421530105523</v>
       </c>
       <c r="E273" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6599,16 +6614,16 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="B274" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="B274" s="0" t="s">
-        <v>543</v>
-      </c>
       <c r="C274" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D274" s="0" t="n">
-        <v>0.665427302556766</v>
+        <v>0.478925484976697</v>
       </c>
       <c r="E274" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6616,16 +6631,16 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="B275" s="0" t="s">
         <v>544</v>
       </c>
-      <c r="B275" s="0" t="s">
-        <v>545</v>
-      </c>
       <c r="C275" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D275" s="0" t="n">
-        <v>-3.24501054048431</v>
+        <v>0.665427302556766</v>
       </c>
       <c r="E275" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6633,16 +6648,16 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B276" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="B276" s="0" t="s">
-        <v>547</v>
-      </c>
       <c r="C276" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D276" s="0" t="n">
-        <v>-0.148554051848514</v>
+        <v>-3.24501054048431</v>
       </c>
       <c r="E276" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6650,16 +6665,16 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="B277" s="0" t="s">
         <v>548</v>
       </c>
-      <c r="B277" s="0" t="s">
-        <v>549</v>
-      </c>
       <c r="C277" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D277" s="0" t="n">
-        <v>-1.15114953707942</v>
+        <v>-0.148554051848514</v>
       </c>
       <c r="E277" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6667,16 +6682,16 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="B278" s="0" t="s">
         <v>550</v>
       </c>
-      <c r="B278" s="0" t="s">
-        <v>551</v>
-      </c>
       <c r="C278" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D278" s="0" t="n">
-        <v>-0.857700927099229</v>
+        <v>-1.15114953707942</v>
       </c>
       <c r="E278" s="0" t="n">
         <v>0.999668701664958</v>
@@ -6684,101 +6699,101 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="B279" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="B279" s="0" t="s">
-        <v>553</v>
-      </c>
       <c r="C279" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D279" s="0" t="n">
-        <v>-2.12135494222699</v>
+        <v>-0.857700927099229</v>
       </c>
       <c r="E279" s="0" t="n">
-        <v>0.999695512693846</v>
+        <v>0.999668701664958</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="B280" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="B280" s="0" t="s">
-        <v>555</v>
-      </c>
       <c r="C280" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D280" s="0" t="n">
-        <v>-0.21814386500955</v>
+        <v>-2.12135494222699</v>
       </c>
       <c r="E280" s="0" t="n">
-        <v>0.999780388176075</v>
+        <v>0.999695512693846</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="B281" s="0" t="s">
         <v>556</v>
       </c>
-      <c r="B281" s="0" t="s">
-        <v>557</v>
-      </c>
       <c r="C281" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D281" s="0" t="n">
-        <v>0.292202667539183</v>
+        <v>-0.21814386500955</v>
       </c>
       <c r="E281" s="0" t="n">
-        <v>0.999858016874388</v>
+        <v>0.999780388176075</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="B282" s="0" t="s">
         <v>558</v>
       </c>
-      <c r="B282" s="0" t="s">
-        <v>559</v>
-      </c>
       <c r="C282" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D282" s="0" t="n">
-        <v>-1.94784887097613</v>
+        <v>0.292202667539183</v>
       </c>
       <c r="E282" s="0" t="n">
-        <v>0.999917925651672</v>
+        <v>0.999858016874388</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="B283" s="0" t="s">
         <v>560</v>
       </c>
-      <c r="B283" s="0" t="s">
-        <v>561</v>
-      </c>
       <c r="C283" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D283" s="0" t="n">
-        <v>-0.43035278171023</v>
+        <v>-0.355056169151327</v>
       </c>
       <c r="E283" s="0" t="n">
-        <v>0.999984754860472</v>
+        <v>0.999946952694855</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="B284" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="B284" s="0" t="s">
-        <v>219</v>
-      </c>
       <c r="C284" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D284" s="0" t="n">
-        <v>-0.898779118686037</v>
+        <v>-0.43035278171023</v>
       </c>
       <c r="E284" s="0" t="n">
         <v>0.999984754860472</v>
@@ -6789,13 +6804,13 @@
         <v>563</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>564</v>
+        <v>215</v>
       </c>
       <c r="C285" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D285" s="0" t="n">
-        <v>-0.640134803753425</v>
+        <v>-0.898779118686037</v>
       </c>
       <c r="E285" s="0" t="n">
         <v>0.999984754860472</v>
@@ -6803,16 +6818,16 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="B286" s="0" t="s">
         <v>565</v>
       </c>
-      <c r="B286" s="0" t="s">
-        <v>566</v>
-      </c>
       <c r="C286" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D286" s="0" t="n">
-        <v>0.125533852235692</v>
+        <v>-0.640134803753425</v>
       </c>
       <c r="E286" s="0" t="n">
         <v>0.999984754860472</v>
@@ -6820,16 +6835,16 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B287" s="0" t="s">
         <v>567</v>
       </c>
-      <c r="B287" s="0" t="s">
-        <v>568</v>
-      </c>
       <c r="C287" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D287" s="0" t="n">
-        <v>-0.0330413827363509</v>
+        <v>0.125533852235692</v>
       </c>
       <c r="E287" s="0" t="n">
         <v>0.999984754860472</v>
@@ -6837,16 +6852,16 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="B288" s="0" t="s">
         <v>569</v>
       </c>
-      <c r="B288" s="0" t="s">
-        <v>570</v>
-      </c>
       <c r="C288" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D288" s="0" t="n">
-        <v>-0.771392228172656</v>
+        <v>-0.0330413827363509</v>
       </c>
       <c r="E288" s="0" t="n">
         <v>0.999984754860472</v>
@@ -6854,16 +6869,16 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="B289" s="0" t="s">
         <v>571</v>
       </c>
-      <c r="B289" s="0" t="s">
-        <v>572</v>
-      </c>
       <c r="C289" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D289" s="0" t="n">
-        <v>0.237542369236229</v>
+        <v>-0.771392228172656</v>
       </c>
       <c r="E289" s="0" t="n">
         <v>0.999984754860472</v>
@@ -6871,16 +6886,16 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B290" s="0" t="s">
         <v>573</v>
       </c>
-      <c r="B290" s="0" t="s">
-        <v>574</v>
-      </c>
       <c r="C290" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D290" s="0" t="n">
-        <v>-1.04022669154832</v>
+        <v>0.237542369236229</v>
       </c>
       <c r="E290" s="0" t="n">
         <v>0.999984754860472</v>
@@ -6888,16 +6903,16 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B291" s="0" t="s">
         <v>575</v>
       </c>
-      <c r="B291" s="0" t="s">
-        <v>576</v>
-      </c>
       <c r="C291" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D291" s="0" t="n">
-        <v>-0.615287225304863</v>
+        <v>-1.04022669154832</v>
       </c>
       <c r="E291" s="0" t="n">
         <v>0.999984754860472</v>
@@ -6905,16 +6920,16 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="B292" s="0" t="s">
         <v>577</v>
       </c>
-      <c r="B292" s="0" t="s">
-        <v>578</v>
-      </c>
       <c r="C292" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D292" s="0" t="n">
-        <v>-0.755438480044116</v>
+        <v>-0.615287225304863</v>
       </c>
       <c r="E292" s="0" t="n">
         <v>0.999984754860472</v>
@@ -6922,16 +6937,16 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="B293" s="0" t="s">
         <v>579</v>
       </c>
-      <c r="B293" s="0" t="s">
-        <v>580</v>
-      </c>
       <c r="C293" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D293" s="0" t="n">
-        <v>-0.272066467209109</v>
+        <v>-0.755438480044116</v>
       </c>
       <c r="E293" s="0" t="n">
         <v>0.999984754860472</v>
@@ -6939,16 +6954,16 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="B294" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B294" s="0" t="s">
-        <v>582</v>
-      </c>
       <c r="C294" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D294" s="0" t="n">
-        <v>0.169559077621048</v>
+        <v>0.328368538653636</v>
       </c>
       <c r="E294" s="0" t="n">
         <v>0.999984754860472</v>
@@ -6956,16 +6971,16 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="B295" s="0" t="s">
         <v>583</v>
       </c>
-      <c r="B295" s="0" t="s">
-        <v>219</v>
-      </c>
       <c r="C295" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D295" s="0" t="n">
-        <v>0.17759012748893</v>
+        <v>-0.272066467209109</v>
       </c>
       <c r="E295" s="0" t="n">
         <v>0.999984754860472</v>
@@ -6982,7 +6997,7 @@
         <v>7</v>
       </c>
       <c r="D296" s="0" t="n">
-        <v>0.322054164818211</v>
+        <v>0.169559077621048</v>
       </c>
       <c r="E296" s="0" t="n">
         <v>0.999984754860472</v>
@@ -6993,13 +7008,13 @@
         <v>586</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>587</v>
+        <v>215</v>
       </c>
       <c r="C297" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D297" s="0" t="n">
-        <v>0.0311356005266828</v>
+        <v>0.17759012748893</v>
       </c>
       <c r="E297" s="0" t="n">
         <v>0.999984754860472</v>
@@ -7007,16 +7022,16 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="B298" s="0" t="s">
         <v>588</v>
       </c>
-      <c r="B298" s="0" t="s">
-        <v>589</v>
-      </c>
       <c r="C298" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D298" s="0" t="n">
-        <v>-0.839379782402413</v>
+        <v>-2.20591148941478</v>
       </c>
       <c r="E298" s="0" t="n">
         <v>0.999984754860472</v>
@@ -7024,16 +7039,16 @@
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="B299" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="B299" s="0" t="s">
-        <v>591</v>
-      </c>
       <c r="C299" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D299" s="0" t="n">
-        <v>0.32629904888056</v>
+        <v>0.322054164818211</v>
       </c>
       <c r="E299" s="0" t="n">
         <v>0.999984754860472</v>
@@ -7041,16 +7056,16 @@
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="B300" s="0" t="s">
         <v>592</v>
       </c>
-      <c r="B300" s="0" t="s">
-        <v>593</v>
-      </c>
       <c r="C300" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D300" s="0" t="n">
-        <v>-0.790589283890233</v>
+        <v>0.0311356005266828</v>
       </c>
       <c r="E300" s="0" t="n">
         <v>0.999984754860472</v>
@@ -7058,16 +7073,16 @@
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B301" s="0" t="s">
         <v>594</v>
       </c>
-      <c r="B301" s="0" t="s">
-        <v>595</v>
-      </c>
       <c r="C301" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D301" s="0" t="n">
-        <v>0.454571627296932</v>
+        <v>-0.839379782402413</v>
       </c>
       <c r="E301" s="0" t="n">
         <v>0.999984754860472</v>
@@ -7075,16 +7090,16 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="B302" s="0" t="s">
         <v>596</v>
       </c>
-      <c r="B302" s="0" t="s">
-        <v>597</v>
-      </c>
       <c r="C302" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D302" s="0" t="n">
-        <v>0.0570017414730467</v>
+        <v>0.32629904888056</v>
       </c>
       <c r="E302" s="0" t="n">
         <v>0.999984754860472</v>
@@ -7092,16 +7107,16 @@
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="B303" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="B303" s="0" t="s">
-        <v>599</v>
-      </c>
       <c r="C303" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D303" s="0" t="n">
-        <v>-1.10870231345577</v>
+        <v>-0.790589283890233</v>
       </c>
       <c r="E303" s="0" t="n">
         <v>0.999984754860472</v>
@@ -7109,75 +7124,75 @@
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="B304" s="0" t="s">
         <v>600</v>
       </c>
-      <c r="B304" s="0" t="s">
-        <v>601</v>
-      </c>
       <c r="C304" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D304" s="0" t="n">
-        <v>-0.376469376085992</v>
+        <v>0.454571627296932</v>
       </c>
       <c r="E304" s="0" t="n">
-        <v>0.999988838276236</v>
+        <v>0.999984754860472</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="B305" s="0" t="s">
         <v>602</v>
       </c>
-      <c r="B305" s="0" t="s">
-        <v>603</v>
-      </c>
       <c r="C305" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D305" s="0" t="n">
-        <v>-0.363996617700856</v>
+        <v>0.0570017414730467</v>
       </c>
       <c r="E305" s="0" t="n">
-        <v>0.999988838276236</v>
+        <v>0.999984754860472</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B306" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="B306" s="0" t="s">
-        <v>605</v>
-      </c>
       <c r="C306" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D306" s="0" t="n">
-        <v>-0.30851848551503</v>
+        <v>-1.10870231345577</v>
       </c>
       <c r="E306" s="0" t="n">
-        <v>0.999990543896406</v>
+        <v>0.999984754860472</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="B307" s="0" t="s">
         <v>606</v>
       </c>
-      <c r="B307" s="0" t="s">
-        <v>607</v>
-      </c>
       <c r="C307" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D307" s="0" t="n">
-        <v>-0.324789354794062</v>
+        <v>-0.376469376085992</v>
       </c>
       <c r="E307" s="0" t="n">
-        <v>0.999996923493016</v>
+        <v>0.999988838276236</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B308" s="0" t="s">
         <v>608</v>
@@ -7186,9 +7201,60 @@
         <v>7</v>
       </c>
       <c r="D308" s="0" t="n">
-        <v>0.00218373592886373</v>
+        <v>-0.363996617700856</v>
       </c>
       <c r="E308" s="0" t="n">
+        <v>0.999988838276236</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="C309" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D309" s="0" t="n">
+        <v>-0.30851848551503</v>
+      </c>
+      <c r="E309" s="0" t="n">
+        <v>0.999990543896406</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="C310" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D310" s="0" t="n">
+        <v>-0.324789354794062</v>
+      </c>
+      <c r="E310" s="0" t="n">
+        <v>0.999996923493016</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="C311" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D311" s="0" t="n">
+        <v>0.000793650892271791</v>
+      </c>
+      <c r="E311" s="0" t="n">
         <v>1</v>
       </c>
     </row>
